--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\InautoProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDFA526-CF2E-4E18-8EF7-F4A4B89EAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6CCAAB-3ACB-47A6-BD63-00FA8B77EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="9420" xr2:uid="{37E0590C-AE34-44E2-8899-3E1D8E79BBD3}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="9420" xr2:uid="{919F96E5-F50F-4AB7-9244-9F89B26AE724}"/>
   </bookViews>
   <sheets>
     <sheet name="Absentees" sheetId="3" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F762A9C0-2145-4780-BBFF-66C99EDE0A9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C847C340-754E-45ED-A53C-D556F5FCFACC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3A3298-E356-427D-88DA-D0A1694966A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5F8A8C-2172-4D0C-AE69-5E5D39556EDD}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B1EBDA-17E2-4665-9FCF-EDCCC2300535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF92320-3555-4EEF-80F0-9DC728301C7B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
